--- a/src/test/resources/Policy.xlsx
+++ b/src/test/resources/Policy.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>₹798/month</t>
   </si>
@@ -41,6 +41,33 @@
   </si>
   <si>
     <t>₹797/month</t>
+  </si>
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>Student Silver</t>
+  </si>
+  <si>
+    <t>₹2,788</t>
+  </si>
+  <si>
+    <t>Bajaj Allianz</t>
+  </si>
+  <si>
+    <t>Student Elite</t>
+  </si>
+  <si>
+    <t>₹2,874</t>
+  </si>
+  <si>
+    <t>Care Health</t>
+  </si>
+  <si>
+    <t>Student Explore Plus</t>
+  </si>
+  <si>
+    <t>₹3,484</t>
   </si>
 </sst>
 </file>
@@ -359,14 +386,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/resources/Policy.xlsx
+++ b/src/test/resources/Policy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303699\eclipse-workspace\Hack\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A71D4C6-D60A-44D9-8BFC-8B2AE1B52D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C72EDF-39CD-43A2-9D96-5ED881F41D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,48 +26,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Policy Name</t>
+  </si>
+  <si>
+    <t>Policy Price</t>
+  </si>
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>Student Silver</t>
+  </si>
+  <si>
+    <t>₹2,788</t>
+  </si>
+  <si>
+    <t>Bajaj Allianz</t>
+  </si>
+  <si>
+    <t>Student Elite</t>
+  </si>
+  <si>
+    <t>₹2,874</t>
+  </si>
+  <si>
+    <t>Care Health</t>
+  </si>
+  <si>
+    <t>Student Explore Plus</t>
+  </si>
+  <si>
+    <t>₹3,484</t>
+  </si>
+  <si>
+    <t>Care Supreme Direct</t>
+  </si>
   <si>
     <t>₹798/month</t>
   </si>
   <si>
+    <t>ReAssure 2.0 Bronze+ (Direct)</t>
+  </si>
+  <si>
     <t>₹669/month</t>
   </si>
   <si>
+    <t>Smart Health Pro</t>
+  </si>
+  <si>
     <t>₹452/month</t>
   </si>
   <si>
+    <t>Activ One</t>
+  </si>
+  <si>
     <t>₹638/month</t>
   </si>
   <si>
+    <t>Individual Health Guard - Gold</t>
+  </si>
+  <si>
     <t>₹797/month</t>
-  </si>
-  <si>
-    <t>Reliance</t>
-  </si>
-  <si>
-    <t>Student Silver</t>
-  </si>
-  <si>
-    <t>₹2,788</t>
-  </si>
-  <si>
-    <t>Bajaj Allianz</t>
-  </si>
-  <si>
-    <t>Student Elite</t>
-  </si>
-  <si>
-    <t>₹2,874</t>
-  </si>
-  <si>
-    <t>Care Health</t>
-  </si>
-  <si>
-    <t>Student Explore Plus</t>
-  </si>
-  <si>
-    <t>₹3,484</t>
   </si>
 </sst>
 </file>
@@ -386,45 +410,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>8</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -434,35 +469,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6988CA48-7002-4EE0-A008-00E93369F896}">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="23.90625"/>
+    <col min="2" max="2" customWidth="true" width="18.36328125"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Policy.xlsx
+++ b/src/test/resources/Policy.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="22">
   <si>
     <t>Company Name</t>
   </si>

--- a/src/test/resources/Policy.xlsx
+++ b/src/test/resources/Policy.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="22">
   <si>
     <t>Company Name</t>
   </si>
@@ -108,12 +108,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,8 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,13 +456,13 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s" s="5">
         <v>2</v>
       </c>
     </row>
@@ -482,10 +519,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
     </row>
